--- a/data/pca/factorExposure/factorExposure_2016-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01093133012972815</v>
+        <v>-0.01326618182295432</v>
       </c>
       <c r="C2">
-        <v>-0.05309595803482919</v>
+        <v>0.03817508500804693</v>
       </c>
       <c r="D2">
-        <v>-0.04221750472924465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05611961049970582</v>
+      </c>
+      <c r="E2">
+        <v>0.0859643600484862</v>
+      </c>
+      <c r="F2">
+        <v>-0.08502358874762406</v>
+      </c>
+      <c r="G2">
+        <v>-0.003208506707618073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03897874317841883</v>
+        <v>-0.02473413528676312</v>
       </c>
       <c r="C3">
-        <v>-0.1207804034626579</v>
+        <v>0.07034817164612818</v>
       </c>
       <c r="D3">
-        <v>-0.09631144816525364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07501695466702521</v>
+      </c>
+      <c r="E3">
+        <v>0.06762322959656238</v>
+      </c>
+      <c r="F3">
+        <v>0.02330669594797904</v>
+      </c>
+      <c r="G3">
+        <v>-0.0437425169044476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05874300141084261</v>
+        <v>-0.05692198498537041</v>
       </c>
       <c r="C4">
-        <v>-0.06264984417449768</v>
+        <v>0.06523217501119226</v>
       </c>
       <c r="D4">
-        <v>-0.02911856598442425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05098718043298225</v>
+      </c>
+      <c r="E4">
+        <v>0.08266642310608051</v>
+      </c>
+      <c r="F4">
+        <v>-0.06104036879091828</v>
+      </c>
+      <c r="G4">
+        <v>-0.07683802272108599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0392831667550991</v>
+        <v>-0.03482897363948224</v>
       </c>
       <c r="C6">
-        <v>-0.03791894435059202</v>
+        <v>0.02930927446574584</v>
       </c>
       <c r="D6">
-        <v>-0.03382773246389994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05913632752410668</v>
+      </c>
+      <c r="E6">
+        <v>0.0864045719842081</v>
+      </c>
+      <c r="F6">
+        <v>-0.04702595796289612</v>
+      </c>
+      <c r="G6">
+        <v>-0.06079285648952085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02132320616745629</v>
+        <v>-0.01716822080977849</v>
       </c>
       <c r="C7">
-        <v>-0.04749961395938629</v>
+        <v>0.04006237510400002</v>
       </c>
       <c r="D7">
-        <v>0.009558241312881509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03269292027875302</v>
+      </c>
+      <c r="E7">
+        <v>0.06016385569735809</v>
+      </c>
+      <c r="F7">
+        <v>-0.09312589035626548</v>
+      </c>
+      <c r="G7">
+        <v>-0.06898669045332935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005319451218636789</v>
+        <v>-0.002531520577694364</v>
       </c>
       <c r="C8">
-        <v>-0.03592157690891021</v>
+        <v>0.03204462694612523</v>
       </c>
       <c r="D8">
-        <v>-0.02560780860068177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03049196594488746</v>
+      </c>
+      <c r="E8">
+        <v>0.05763079885858189</v>
+      </c>
+      <c r="F8">
+        <v>-0.03200486774612819</v>
+      </c>
+      <c r="G8">
+        <v>-0.03069294513772888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0330299465396793</v>
+        <v>-0.03649586689265091</v>
       </c>
       <c r="C9">
-        <v>-0.04982585669722003</v>
+        <v>0.05247835897380004</v>
       </c>
       <c r="D9">
-        <v>-0.01240651270850341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03607556430636055</v>
+      </c>
+      <c r="E9">
+        <v>0.06975226443575951</v>
+      </c>
+      <c r="F9">
+        <v>-0.07279893775033501</v>
+      </c>
+      <c r="G9">
+        <v>-0.06704932059240234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08249783947066537</v>
+        <v>-0.105544688228058</v>
       </c>
       <c r="C10">
-        <v>0.1866446414102808</v>
+        <v>-0.1945556095816049</v>
       </c>
       <c r="D10">
-        <v>0.00534056647228068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01240730025472274</v>
+      </c>
+      <c r="E10">
+        <v>0.04200051170243468</v>
+      </c>
+      <c r="F10">
+        <v>-0.02537512094963991</v>
+      </c>
+      <c r="G10">
+        <v>-0.02620965944135404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0404429570978295</v>
+        <v>-0.03568619163226568</v>
       </c>
       <c r="C11">
-        <v>-0.05348082800534354</v>
+        <v>0.04927022202916517</v>
       </c>
       <c r="D11">
-        <v>-0.008712263834794148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03004067824097027</v>
+      </c>
+      <c r="E11">
+        <v>0.02354985742876513</v>
+      </c>
+      <c r="F11">
+        <v>-0.05626324998648145</v>
+      </c>
+      <c r="G11">
+        <v>-0.05297950381809975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04220941000860499</v>
+        <v>-0.03764076179341943</v>
       </c>
       <c r="C12">
-        <v>-0.04948507188674586</v>
+        <v>0.04672283799406309</v>
       </c>
       <c r="D12">
-        <v>-0.0004534775406552086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02383072319902306</v>
+      </c>
+      <c r="E12">
+        <v>0.03181865140610907</v>
+      </c>
+      <c r="F12">
+        <v>-0.05823411835573757</v>
+      </c>
+      <c r="G12">
+        <v>-0.04980190662309127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01263992886826016</v>
+        <v>-0.01004097830547411</v>
       </c>
       <c r="C13">
-        <v>-0.05580806160851273</v>
+        <v>0.04377244440768736</v>
       </c>
       <c r="D13">
-        <v>-0.008686735444389353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04316931789819214</v>
+      </c>
+      <c r="E13">
+        <v>0.09506008677929521</v>
+      </c>
+      <c r="F13">
+        <v>-0.08289254448541741</v>
+      </c>
+      <c r="G13">
+        <v>-0.07564041602641135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006597766511176076</v>
+        <v>-0.003639785163613713</v>
       </c>
       <c r="C14">
-        <v>-0.04266422495652401</v>
+        <v>0.03429200325724936</v>
       </c>
       <c r="D14">
-        <v>0.01344604115437496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02217343231202871</v>
+      </c>
+      <c r="E14">
+        <v>0.04809361426062984</v>
+      </c>
+      <c r="F14">
+        <v>-0.09291147514532237</v>
+      </c>
+      <c r="G14">
+        <v>-0.05461141440245559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002630402298557325</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005131862291394125</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007172702267617627</v>
+      </c>
+      <c r="E15">
+        <v>0.003984172797891162</v>
+      </c>
+      <c r="F15">
+        <v>-0.006324216066336299</v>
+      </c>
+      <c r="G15">
+        <v>-0.004423430909705282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03734343479519647</v>
+        <v>-0.03362401328035679</v>
       </c>
       <c r="C16">
-        <v>-0.05022360486094085</v>
+        <v>0.04578310912088698</v>
       </c>
       <c r="D16">
-        <v>-0.004774312119124556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02328351434944219</v>
+      </c>
+      <c r="E16">
+        <v>0.03814246863991</v>
+      </c>
+      <c r="F16">
+        <v>-0.06258331177321155</v>
+      </c>
+      <c r="G16">
+        <v>-0.03894772109643198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0208790273061417</v>
+        <v>-0.01569795863658197</v>
       </c>
       <c r="C19">
-        <v>-0.06533353388456471</v>
+        <v>0.04678260537611335</v>
       </c>
       <c r="D19">
-        <v>-0.09144214892588838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08865876376142079</v>
+      </c>
+      <c r="E19">
+        <v>0.1101645166146388</v>
+      </c>
+      <c r="F19">
+        <v>-0.07848935243675155</v>
+      </c>
+      <c r="G19">
+        <v>-0.02430680653406023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01571020102992388</v>
+        <v>-0.01243860880981317</v>
       </c>
       <c r="C20">
-        <v>-0.04914825760308623</v>
+        <v>0.03962780461210982</v>
       </c>
       <c r="D20">
-        <v>-0.009523023588246358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03072474690056733</v>
+      </c>
+      <c r="E20">
+        <v>0.07543160147826988</v>
+      </c>
+      <c r="F20">
+        <v>-0.06868142496472156</v>
+      </c>
+      <c r="G20">
+        <v>-0.05021950964624631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00909114297780776</v>
+        <v>-0.008426999811924178</v>
       </c>
       <c r="C21">
-        <v>-0.05154499812539119</v>
+        <v>0.04267558875600503</v>
       </c>
       <c r="D21">
-        <v>-0.03670705529347871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0568571085886023</v>
+      </c>
+      <c r="E21">
+        <v>0.1152015718627649</v>
+      </c>
+      <c r="F21">
+        <v>-0.1093177749274475</v>
+      </c>
+      <c r="G21">
+        <v>-0.07747134590910983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0007627255109080563</v>
+        <v>-0.00234813615923857</v>
       </c>
       <c r="C22">
-        <v>-0.000769026712550009</v>
+        <v>0.0264530320120689</v>
       </c>
       <c r="D22">
-        <v>-0.001996696401479917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04219867714921898</v>
+      </c>
+      <c r="E22">
+        <v>0.03969795388821282</v>
+      </c>
+      <c r="F22">
+        <v>-0.0001460901750439135</v>
+      </c>
+      <c r="G22">
+        <v>-0.05258420496203773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0007683760933782636</v>
+        <v>-0.002426161378035448</v>
       </c>
       <c r="C23">
-        <v>-0.000769196742556849</v>
+        <v>0.02660560588619526</v>
       </c>
       <c r="D23">
-        <v>-0.002002746055597822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04179151815574002</v>
+      </c>
+      <c r="E23">
+        <v>0.03995634753215848</v>
+      </c>
+      <c r="F23">
+        <v>0.0001186057969205376</v>
+      </c>
+      <c r="G23">
+        <v>-0.052653672259976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03429918094128213</v>
+        <v>-0.03363100704443939</v>
       </c>
       <c r="C24">
-        <v>-0.05150427086280622</v>
+        <v>0.05313361515218831</v>
       </c>
       <c r="D24">
-        <v>-0.005253743300649364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02342384931147606</v>
+      </c>
+      <c r="E24">
+        <v>0.03890451659611512</v>
+      </c>
+      <c r="F24">
+        <v>-0.06594352493307296</v>
+      </c>
+      <c r="G24">
+        <v>-0.04959787110196062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0473309530456476</v>
+        <v>-0.04281765307168198</v>
       </c>
       <c r="C25">
-        <v>-0.0631894167837958</v>
+        <v>0.05746781113329757</v>
       </c>
       <c r="D25">
-        <v>0.004832654347513078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02271698876742474</v>
+      </c>
+      <c r="E25">
+        <v>0.02907290229271526</v>
+      </c>
+      <c r="F25">
+        <v>-0.06055653923898353</v>
+      </c>
+      <c r="G25">
+        <v>-0.06527505980863457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01533183684782048</v>
+        <v>-0.01420767206329182</v>
       </c>
       <c r="C26">
-        <v>-0.0186011322374346</v>
+        <v>0.01828528404398579</v>
       </c>
       <c r="D26">
-        <v>-0.000803843739728711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02219811975906074</v>
+      </c>
+      <c r="E26">
+        <v>0.04851829155044249</v>
+      </c>
+      <c r="F26">
+        <v>-0.06884987067085352</v>
+      </c>
+      <c r="G26">
+        <v>-0.0275982320488867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09697635677250763</v>
+        <v>-0.1404206546999822</v>
       </c>
       <c r="C28">
-        <v>0.2410164031654858</v>
+        <v>-0.2479706186533922</v>
       </c>
       <c r="D28">
-        <v>0.004677752939013445</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02708212633781105</v>
+      </c>
+      <c r="E28">
+        <v>0.0575186026240063</v>
+      </c>
+      <c r="F28">
+        <v>-0.04112684249399604</v>
+      </c>
+      <c r="G28">
+        <v>-0.04632140519980924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006028275656876293</v>
+        <v>-0.004417333033971748</v>
       </c>
       <c r="C29">
-        <v>-0.03459582307986721</v>
+        <v>0.03056171151469699</v>
       </c>
       <c r="D29">
-        <v>0.01749001587024776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01605000593975211</v>
+      </c>
+      <c r="E29">
+        <v>0.04646307104380088</v>
+      </c>
+      <c r="F29">
+        <v>-0.08179991330096512</v>
+      </c>
+      <c r="G29">
+        <v>-0.06335353263911248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04384156569732052</v>
+        <v>-0.03961184547634649</v>
       </c>
       <c r="C30">
-        <v>-0.05569191100265796</v>
+        <v>0.05801028533027437</v>
       </c>
       <c r="D30">
-        <v>-0.0660946326452707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09688109587975231</v>
+      </c>
+      <c r="E30">
+        <v>0.07541633696684588</v>
+      </c>
+      <c r="F30">
+        <v>-0.08555571787514603</v>
+      </c>
+      <c r="G30">
+        <v>-0.03951452462687174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05728497521278369</v>
+        <v>-0.05634806068982805</v>
       </c>
       <c r="C31">
-        <v>-0.04639500824215712</v>
+        <v>0.0620070196603181</v>
       </c>
       <c r="D31">
-        <v>0.0305317600871063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01562786747380044</v>
+      </c>
+      <c r="E31">
+        <v>0.06497683795632397</v>
+      </c>
+      <c r="F31">
+        <v>-0.04573937148235782</v>
+      </c>
+      <c r="G31">
+        <v>-0.07850449764466472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0009282725899676895</v>
+        <v>-0.00484946554749948</v>
       </c>
       <c r="C32">
-        <v>-0.04135935308475156</v>
+        <v>0.03402765463054636</v>
       </c>
       <c r="D32">
-        <v>-0.04750325119339404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05338062822714938</v>
+      </c>
+      <c r="E32">
+        <v>0.05697073900216024</v>
+      </c>
+      <c r="F32">
+        <v>-0.07149769548003231</v>
+      </c>
+      <c r="G32">
+        <v>-0.03235587927412958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02898546121033841</v>
+        <v>-0.02457249268470225</v>
       </c>
       <c r="C33">
-        <v>-0.06408819650638427</v>
+        <v>0.055875073096973</v>
       </c>
       <c r="D33">
-        <v>-0.03938394234017263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06994669925398055</v>
+      </c>
+      <c r="E33">
+        <v>0.08811067576388917</v>
+      </c>
+      <c r="F33">
+        <v>-0.09641960297265859</v>
+      </c>
+      <c r="G33">
+        <v>-0.07715620882884888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04418604753686727</v>
+        <v>-0.03981547114395562</v>
       </c>
       <c r="C34">
-        <v>-0.06807885320614127</v>
+        <v>0.06547964420761417</v>
       </c>
       <c r="D34">
-        <v>-0.01069800062698617</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03592746695805637</v>
+      </c>
+      <c r="E34">
+        <v>0.01143183028438789</v>
+      </c>
+      <c r="F34">
+        <v>-0.06790445653195983</v>
+      </c>
+      <c r="G34">
+        <v>-0.05094198929796331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01597954651244548</v>
+        <v>-0.01383719764692212</v>
       </c>
       <c r="C36">
-        <v>-0.01766391983750551</v>
+        <v>0.0140284998087438</v>
       </c>
       <c r="D36">
-        <v>0.005424005423902796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02132317761946465</v>
+      </c>
+      <c r="E36">
+        <v>0.05619391533740895</v>
+      </c>
+      <c r="F36">
+        <v>-0.06402007237301753</v>
+      </c>
+      <c r="G36">
+        <v>-0.04842464834106153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02919942834281356</v>
+        <v>-0.02272811842419038</v>
       </c>
       <c r="C38">
-        <v>-0.03031287477462719</v>
+        <v>0.02380194397153963</v>
       </c>
       <c r="D38">
-        <v>0.01493331039082847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01881146846725604</v>
+      </c>
+      <c r="E38">
+        <v>0.04779749865919886</v>
+      </c>
+      <c r="F38">
+        <v>-0.05167516904420153</v>
+      </c>
+      <c r="G38">
+        <v>-0.03257753793287524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04490047145106903</v>
+        <v>-0.03872647963491811</v>
       </c>
       <c r="C39">
-        <v>-0.06699146956815345</v>
+        <v>0.06518661946815262</v>
       </c>
       <c r="D39">
-        <v>-0.01331494004692796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04762871770408355</v>
+      </c>
+      <c r="E39">
+        <v>0.04450698741035743</v>
+      </c>
+      <c r="F39">
+        <v>-0.08593457261589398</v>
+      </c>
+      <c r="G39">
+        <v>-0.0378903866901967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01241299246896543</v>
+        <v>-0.01282813388916082</v>
       </c>
       <c r="C40">
-        <v>-0.0521614148086403</v>
+        <v>0.03783949582625136</v>
       </c>
       <c r="D40">
-        <v>-0.01602884694163213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02788108311733736</v>
+      </c>
+      <c r="E40">
+        <v>0.08134928429757998</v>
+      </c>
+      <c r="F40">
+        <v>-0.05704362848464151</v>
+      </c>
+      <c r="G40">
+        <v>-0.08783406315437382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02189659777183774</v>
+        <v>-0.01908948223198635</v>
       </c>
       <c r="C41">
-        <v>-0.01504871099293628</v>
+        <v>0.01097872470539362</v>
       </c>
       <c r="D41">
-        <v>-0.001951246166030407</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01454925623082347</v>
+      </c>
+      <c r="E41">
+        <v>0.05731323203569766</v>
+      </c>
+      <c r="F41">
+        <v>-0.05880660006055088</v>
+      </c>
+      <c r="G41">
+        <v>-0.04049034523000642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03922720010777515</v>
+        <v>-0.02901428922159429</v>
       </c>
       <c r="C43">
-        <v>-0.03599214221842668</v>
+        <v>0.02570591080118886</v>
       </c>
       <c r="D43">
-        <v>-0.0284073780322957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04133009958387822</v>
+      </c>
+      <c r="E43">
+        <v>0.07277100796717313</v>
+      </c>
+      <c r="F43">
+        <v>-0.06026627052789289</v>
+      </c>
+      <c r="G43">
+        <v>-0.06508041917043028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01204559499448426</v>
+        <v>-0.01345414595427381</v>
       </c>
       <c r="C44">
-        <v>-0.06861627700998431</v>
+        <v>0.04922327460763556</v>
       </c>
       <c r="D44">
-        <v>-0.007992751982802242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03142039640104047</v>
+      </c>
+      <c r="E44">
+        <v>0.08637002888065426</v>
+      </c>
+      <c r="F44">
+        <v>-0.06969609784979218</v>
+      </c>
+      <c r="G44">
+        <v>-0.03021694780854305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007326340333455571</v>
+        <v>-0.00799578849625684</v>
       </c>
       <c r="C46">
-        <v>-0.03030249682335219</v>
+        <v>0.03016438357343338</v>
       </c>
       <c r="D46">
-        <v>0.01935380310531036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009336300410064393</v>
+      </c>
+      <c r="E46">
+        <v>0.05463822893410164</v>
+      </c>
+      <c r="F46">
+        <v>-0.0963189330665587</v>
+      </c>
+      <c r="G46">
+        <v>-0.06094380609176456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08342095707009653</v>
+        <v>-0.08762542839937053</v>
       </c>
       <c r="C47">
-        <v>-0.07291656593189108</v>
+        <v>0.08264698083726613</v>
       </c>
       <c r="D47">
-        <v>0.0268565797132253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02211187083060325</v>
+      </c>
+      <c r="E47">
+        <v>0.06707645716822315</v>
+      </c>
+      <c r="F47">
+        <v>-0.04353673006475479</v>
+      </c>
+      <c r="G47">
+        <v>-0.07702583725653414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01826397386833532</v>
+        <v>-0.01617555903594008</v>
       </c>
       <c r="C48">
-        <v>-0.01639312311250448</v>
+        <v>0.01714103327406892</v>
       </c>
       <c r="D48">
-        <v>0.01793234877934459</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009446148800569742</v>
+      </c>
+      <c r="E48">
+        <v>0.06626195870196364</v>
+      </c>
+      <c r="F48">
+        <v>-0.08157241197100185</v>
+      </c>
+      <c r="G48">
+        <v>-0.05618657037605791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08001208535197683</v>
+        <v>-0.06992767798896453</v>
       </c>
       <c r="C50">
-        <v>-0.08370928255885594</v>
+        <v>0.07680056333147602</v>
       </c>
       <c r="D50">
-        <v>0.02824035559390007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007870225621561497</v>
+      </c>
+      <c r="E50">
+        <v>0.07394094860453729</v>
+      </c>
+      <c r="F50">
+        <v>-0.02168242510085286</v>
+      </c>
+      <c r="G50">
+        <v>-0.09353156892110855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01428637031540569</v>
+        <v>-0.009126855788157329</v>
       </c>
       <c r="C51">
-        <v>-0.05019678916100209</v>
+        <v>0.03237148656587917</v>
       </c>
       <c r="D51">
-        <v>-0.02947368099516351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05195961506886641</v>
+      </c>
+      <c r="E51">
+        <v>0.04738172351516623</v>
+      </c>
+      <c r="F51">
+        <v>-0.08151588773599598</v>
+      </c>
+      <c r="G51">
+        <v>-0.03506615502397881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08244765839462612</v>
+        <v>-0.09458781698897378</v>
       </c>
       <c r="C53">
-        <v>-0.07860932502489557</v>
+        <v>0.08786027437300296</v>
       </c>
       <c r="D53">
-        <v>0.0502970639860325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05498282008686591</v>
+      </c>
+      <c r="E53">
+        <v>0.06108795200056144</v>
+      </c>
+      <c r="F53">
+        <v>-0.04058809054026967</v>
+      </c>
+      <c r="G53">
+        <v>-0.07831541136671115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03145379711486265</v>
+        <v>-0.02707143335917362</v>
       </c>
       <c r="C54">
-        <v>-0.03774470773216821</v>
+        <v>0.0327350987344716</v>
       </c>
       <c r="D54">
-        <v>0.003015424926458184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02398004660211017</v>
+      </c>
+      <c r="E54">
+        <v>0.05436138886710613</v>
+      </c>
+      <c r="F54">
+        <v>-0.08581865786761812</v>
+      </c>
+      <c r="G54">
+        <v>-0.06131671612051653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07564194209624382</v>
+        <v>-0.0859080743019834</v>
       </c>
       <c r="C55">
-        <v>-0.05900916335065575</v>
+        <v>0.07075287612248977</v>
       </c>
       <c r="D55">
-        <v>0.0545007232162018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05767183221891495</v>
+      </c>
+      <c r="E55">
+        <v>0.04391184093694308</v>
+      </c>
+      <c r="F55">
+        <v>-0.02238343905454126</v>
+      </c>
+      <c r="G55">
+        <v>-0.05950406306137809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1467799699581302</v>
+        <v>-0.1484950939293747</v>
       </c>
       <c r="C56">
-        <v>-0.094797115726879</v>
+        <v>0.1078635171051108</v>
       </c>
       <c r="D56">
-        <v>0.04682449772989496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05453887740163962</v>
+      </c>
+      <c r="E56">
+        <v>0.04194023737425808</v>
+      </c>
+      <c r="F56">
+        <v>0.002521842164617178</v>
+      </c>
+      <c r="G56">
+        <v>-0.04173235602502658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04574219110747797</v>
+        <v>-0.02773855597742295</v>
       </c>
       <c r="C58">
-        <v>-0.0286390655914832</v>
+        <v>0.02582216125957579</v>
       </c>
       <c r="D58">
-        <v>-0.73942458163531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3825478043244129</v>
+      </c>
+      <c r="E58">
+        <v>0.6636470753676714</v>
+      </c>
+      <c r="F58">
+        <v>0.4820242916737389</v>
+      </c>
+      <c r="G58">
+        <v>0.3177265593477042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1355601747655023</v>
+        <v>-0.1474704041368824</v>
       </c>
       <c r="C59">
-        <v>0.1952468455227205</v>
+        <v>-0.1859777625591544</v>
       </c>
       <c r="D59">
-        <v>-0.02553235051991571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02632702268690652</v>
+      </c>
+      <c r="E59">
+        <v>0.02818164716484525</v>
+      </c>
+      <c r="F59">
+        <v>-0.02877056423076866</v>
+      </c>
+      <c r="G59">
+        <v>0.0203988981061032</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3077921612326254</v>
+        <v>-0.2787688232533863</v>
       </c>
       <c r="C60">
-        <v>-0.1088364889049149</v>
+        <v>0.1082197893490989</v>
       </c>
       <c r="D60">
-        <v>-0.144545201349829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2619634637240875</v>
+      </c>
+      <c r="E60">
+        <v>-0.2415513584423365</v>
+      </c>
+      <c r="F60">
+        <v>0.07589143016656909</v>
+      </c>
+      <c r="G60">
+        <v>-0.03799251776131748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04256886268265912</v>
+        <v>-0.0399206625115192</v>
       </c>
       <c r="C61">
-        <v>-0.06480484957564911</v>
+        <v>0.06129862387218895</v>
       </c>
       <c r="D61">
-        <v>-0.009736175512141074</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03912824242656347</v>
+      </c>
+      <c r="E61">
+        <v>0.04768837864752422</v>
+      </c>
+      <c r="F61">
+        <v>-0.06845665345552948</v>
+      </c>
+      <c r="G61">
+        <v>-0.05662713017874243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01526018463463751</v>
+        <v>-0.01435108276075983</v>
       </c>
       <c r="C63">
-        <v>-0.03551563799323016</v>
+        <v>0.03243743553156089</v>
       </c>
       <c r="D63">
-        <v>0.01438598085422641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01523308970906728</v>
+      </c>
+      <c r="E63">
+        <v>0.05896429558567819</v>
+      </c>
+      <c r="F63">
+        <v>-0.0538686019410191</v>
+      </c>
+      <c r="G63">
+        <v>-0.06504778425046003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04898370811384739</v>
+        <v>-0.05461156853513237</v>
       </c>
       <c r="C64">
-        <v>-0.04857575137694797</v>
+        <v>0.0583749861446325</v>
       </c>
       <c r="D64">
-        <v>0.002203685739022966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.003502442112554427</v>
+      </c>
+      <c r="E64">
+        <v>0.03468153693464638</v>
+      </c>
+      <c r="F64">
+        <v>-0.0725386390870565</v>
+      </c>
+      <c r="G64">
+        <v>-0.04917826259178139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08240979018678481</v>
+        <v>-0.0666191536657305</v>
       </c>
       <c r="C65">
-        <v>-0.02925406279768492</v>
+        <v>0.02853133574998175</v>
       </c>
       <c r="D65">
-        <v>-0.05908539602663072</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08576478459203372</v>
+      </c>
+      <c r="E65">
+        <v>0.05405522008523018</v>
+      </c>
+      <c r="F65">
+        <v>-0.01050074356804835</v>
+      </c>
+      <c r="G65">
+        <v>-0.02032077148708363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05996347143087002</v>
+        <v>-0.05002379903045873</v>
       </c>
       <c r="C66">
-        <v>-0.09247507538702697</v>
+        <v>0.08395662475892</v>
       </c>
       <c r="D66">
-        <v>-0.03267641331149947</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07226189577234648</v>
+      </c>
+      <c r="E66">
+        <v>0.05279710179556047</v>
+      </c>
+      <c r="F66">
+        <v>-0.08265752182560075</v>
+      </c>
+      <c r="G66">
+        <v>-0.05497517287897424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05095688979360743</v>
+        <v>-0.04450052728999156</v>
       </c>
       <c r="C67">
-        <v>-0.03237661658645713</v>
+        <v>0.02940460231452778</v>
       </c>
       <c r="D67">
-        <v>0.02133116262543213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003674551541230292</v>
+      </c>
+      <c r="E67">
+        <v>0.02546978036579762</v>
+      </c>
+      <c r="F67">
+        <v>-0.03756307090462191</v>
+      </c>
+      <c r="G67">
+        <v>-0.02855753110563843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1341439385559207</v>
+        <v>-0.1555926139869076</v>
       </c>
       <c r="C68">
-        <v>0.2775132639138401</v>
+        <v>-0.2420835625522239</v>
       </c>
       <c r="D68">
-        <v>0.00440185871944255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01478722526100845</v>
+      </c>
+      <c r="E68">
+        <v>0.0397041839848356</v>
+      </c>
+      <c r="F68">
+        <v>-0.01147986478943263</v>
+      </c>
+      <c r="G68">
+        <v>-0.02978268670987302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09038776499874769</v>
+        <v>-0.0863417678280476</v>
       </c>
       <c r="C69">
-        <v>-0.07343786268397749</v>
+        <v>0.09020399476621802</v>
       </c>
       <c r="D69">
-        <v>0.0427413446806682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01320877312976368</v>
+      </c>
+      <c r="E69">
+        <v>0.05232254662694947</v>
+      </c>
+      <c r="F69">
+        <v>-0.07074858472545255</v>
+      </c>
+      <c r="G69">
+        <v>-0.06877918528782762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1225048757324926</v>
+        <v>-0.1475449449828338</v>
       </c>
       <c r="C71">
-        <v>0.2494237090775518</v>
+        <v>-0.2368832790434642</v>
       </c>
       <c r="D71">
-        <v>-0.0192219990721354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001112940744001604</v>
+      </c>
+      <c r="E71">
+        <v>0.06094996935749789</v>
+      </c>
+      <c r="F71">
+        <v>-0.02974369349802044</v>
+      </c>
+      <c r="G71">
+        <v>-0.05845339836332303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09068628665323737</v>
+        <v>-0.09910491611706092</v>
       </c>
       <c r="C72">
-        <v>-0.05899794594826676</v>
+        <v>0.05956612704407421</v>
       </c>
       <c r="D72">
-        <v>-0.002139769434104462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02584933320233442</v>
+      </c>
+      <c r="E72">
+        <v>0.02535012986400949</v>
+      </c>
+      <c r="F72">
+        <v>-0.04773892128253269</v>
+      </c>
+      <c r="G72">
+        <v>-0.06388765685467687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4039012473099172</v>
+        <v>-0.3417364332623296</v>
       </c>
       <c r="C73">
-        <v>-0.05392268703865203</v>
+        <v>0.07389959920272704</v>
       </c>
       <c r="D73">
-        <v>-0.3543231541992854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5176541171047656</v>
+      </c>
+      <c r="E73">
+        <v>-0.441491556525847</v>
+      </c>
+      <c r="F73">
+        <v>0.2309561588709039</v>
+      </c>
+      <c r="G73">
+        <v>-0.03063461123829345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1035556760944865</v>
+        <v>-0.108929189327937</v>
       </c>
       <c r="C74">
-        <v>-0.09681110504361533</v>
+        <v>0.09637438620909994</v>
       </c>
       <c r="D74">
-        <v>0.02582003954633827</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0434177686355585</v>
+      </c>
+      <c r="E74">
+        <v>0.06244115738896098</v>
+      </c>
+      <c r="F74">
+        <v>0.001805122327120712</v>
+      </c>
+      <c r="G74">
+        <v>-0.06705732235687269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2521832961211767</v>
+        <v>-0.2564698451510819</v>
       </c>
       <c r="C75">
-        <v>-0.1061560120214765</v>
+        <v>0.1334949665201666</v>
       </c>
       <c r="D75">
-        <v>0.1118425447597277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1486809977050853</v>
+      </c>
+      <c r="E75">
+        <v>0.04495261149623094</v>
+      </c>
+      <c r="F75">
+        <v>0.04494192650239602</v>
+      </c>
+      <c r="G75">
+        <v>-0.01036417501372301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1123746668665372</v>
+        <v>-0.1265730545332141</v>
       </c>
       <c r="C76">
-        <v>-0.08349952105823741</v>
+        <v>0.09576519785254067</v>
       </c>
       <c r="D76">
-        <v>0.05498915391597803</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07385002954364833</v>
+      </c>
+      <c r="E76">
+        <v>0.06761896712424166</v>
+      </c>
+      <c r="F76">
+        <v>-0.02054556053099015</v>
+      </c>
+      <c r="G76">
+        <v>-0.05578320970128046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07645877366482366</v>
+        <v>-0.06215100742943536</v>
       </c>
       <c r="C77">
-        <v>-0.05684465892949698</v>
+        <v>0.06509432528650498</v>
       </c>
       <c r="D77">
-        <v>-0.04942350987062209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.052206292404266</v>
+      </c>
+      <c r="E77">
+        <v>0.09780947623391993</v>
+      </c>
+      <c r="F77">
+        <v>-0.1581054844661559</v>
+      </c>
+      <c r="G77">
+        <v>0.1081310536177348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04778834972316903</v>
+        <v>-0.04431228787479184</v>
       </c>
       <c r="C78">
-        <v>-0.04877568873549566</v>
+        <v>0.0570965894014412</v>
       </c>
       <c r="D78">
-        <v>-0.01663964945287208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05730161057300507</v>
+      </c>
+      <c r="E78">
+        <v>0.05456246413277517</v>
+      </c>
+      <c r="F78">
+        <v>-0.07691225475028571</v>
+      </c>
+      <c r="G78">
+        <v>-0.04798945084906949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0293709010532324</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04566816233553906</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0745269582280644</v>
+      </c>
+      <c r="E79">
+        <v>0.05999579499431571</v>
+      </c>
+      <c r="F79">
+        <v>0.01109312497340934</v>
+      </c>
+      <c r="G79">
+        <v>-0.06106375024999121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03829255798528339</v>
+        <v>-0.02956721836581204</v>
       </c>
       <c r="C80">
-        <v>-0.0512113954493142</v>
+        <v>0.05163660933111531</v>
       </c>
       <c r="D80">
-        <v>-0.02337647209320618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0371504727989985</v>
+      </c>
+      <c r="E80">
+        <v>0.01953132116123914</v>
+      </c>
+      <c r="F80">
+        <v>-0.04648026389060859</v>
+      </c>
+      <c r="G80">
+        <v>0.02316411408118195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1380550056155662</v>
+        <v>-0.1379980036095015</v>
       </c>
       <c r="C81">
-        <v>-0.07774942731812168</v>
+        <v>0.09554537081914399</v>
       </c>
       <c r="D81">
-        <v>0.07829535102666423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1185461204020735</v>
+      </c>
+      <c r="E81">
+        <v>0.06855041033393468</v>
+      </c>
+      <c r="F81">
+        <v>0.02719208332706431</v>
+      </c>
+      <c r="G81">
+        <v>-0.02200499433684971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.173275497143171</v>
+        <v>-0.2109043483926464</v>
       </c>
       <c r="C82">
-        <v>-0.09498071847486111</v>
+        <v>0.1584324933217124</v>
       </c>
       <c r="D82">
-        <v>0.1765776639331619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2465205209668403</v>
+      </c>
+      <c r="E82">
+        <v>-0.01981423827002332</v>
+      </c>
+      <c r="F82">
+        <v>-0.0537338994120234</v>
+      </c>
+      <c r="G82">
+        <v>-0.04504393917818299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03921086884996406</v>
+        <v>-0.02683120783388327</v>
       </c>
       <c r="C83">
-        <v>-0.02983107054757804</v>
+        <v>0.04288485136344055</v>
       </c>
       <c r="D83">
-        <v>-0.02831878901091008</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02836595866933572</v>
+      </c>
+      <c r="E83">
+        <v>0.02401606162629261</v>
+      </c>
+      <c r="F83">
+        <v>-0.04588394586169307</v>
+      </c>
+      <c r="G83">
+        <v>0.002229731896644895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-8.738996270625648e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007813423564514744</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001186245740783952</v>
+      </c>
+      <c r="E84">
+        <v>0.0007640537693491787</v>
+      </c>
+      <c r="F84">
+        <v>-0.001092643895267758</v>
+      </c>
+      <c r="G84">
+        <v>-0.000588634121504993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2195666059744447</v>
+        <v>-0.2025061963378834</v>
       </c>
       <c r="C85">
-        <v>-0.1022267474093271</v>
+        <v>0.1169340932681473</v>
       </c>
       <c r="D85">
-        <v>0.1451334532315477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1150958392265381</v>
+      </c>
+      <c r="E85">
+        <v>-0.02529098785931317</v>
+      </c>
+      <c r="F85">
+        <v>0.09225912049091894</v>
+      </c>
+      <c r="G85">
+        <v>-0.05768044208579117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005865865229676645</v>
+        <v>-0.008541918480023209</v>
       </c>
       <c r="C86">
-        <v>-0.02800642031692236</v>
+        <v>0.02038445245535151</v>
       </c>
       <c r="D86">
-        <v>-0.04378633827128264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05694462001057637</v>
+      </c>
+      <c r="E86">
+        <v>0.0724946220260301</v>
+      </c>
+      <c r="F86">
+        <v>-0.1150356215313485</v>
+      </c>
+      <c r="G86">
+        <v>-0.05458339204608195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02368598852753849</v>
+        <v>-0.02391130118095744</v>
       </c>
       <c r="C87">
-        <v>-0.007347715424870381</v>
+        <v>0.01363915097140517</v>
       </c>
       <c r="D87">
-        <v>-0.08659303644618421</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07889886396937665</v>
+      </c>
+      <c r="E87">
+        <v>0.1251703509596773</v>
+      </c>
+      <c r="F87">
+        <v>-0.08357844418267198</v>
+      </c>
+      <c r="G87">
+        <v>0.000114910701055084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1038183877059702</v>
+        <v>-0.09058151901665708</v>
       </c>
       <c r="C88">
-        <v>-0.07517496196409125</v>
+        <v>0.0640113585920158</v>
       </c>
       <c r="D88">
-        <v>0.02476909564586228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0036606939103757</v>
+      </c>
+      <c r="E88">
+        <v>0.04906778906806221</v>
+      </c>
+      <c r="F88">
+        <v>-0.07702478171578109</v>
+      </c>
+      <c r="G88">
+        <v>-0.02171946953362058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1919698065893394</v>
+        <v>-0.2250678344050626</v>
       </c>
       <c r="C89">
-        <v>0.3716513824406174</v>
+        <v>-0.3755060418728475</v>
       </c>
       <c r="D89">
-        <v>0.02850408091537382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02550051329985594</v>
+      </c>
+      <c r="E89">
+        <v>0.06538849195943511</v>
+      </c>
+      <c r="F89">
+        <v>-0.09172300241856426</v>
+      </c>
+      <c r="G89">
+        <v>0.02528290260967777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1842313795730896</v>
+        <v>-0.2044783031272658</v>
       </c>
       <c r="C90">
-        <v>0.3317979435946199</v>
+        <v>-0.3083156449820078</v>
       </c>
       <c r="D90">
-        <v>0.0305462161790033</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02650900368562591</v>
+      </c>
+      <c r="E90">
+        <v>0.06643039465930786</v>
+      </c>
+      <c r="F90">
+        <v>-0.03955690964070973</v>
+      </c>
+      <c r="G90">
+        <v>-0.005163461613021199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.188149957107082</v>
+        <v>-0.185489279248195</v>
       </c>
       <c r="C91">
-        <v>-0.1284746716180541</v>
+        <v>0.1452185085905029</v>
       </c>
       <c r="D91">
-        <v>0.1045355275285458</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1262334221880287</v>
+      </c>
+      <c r="E91">
+        <v>0.04746577084075282</v>
+      </c>
+      <c r="F91">
+        <v>0.01198625662254078</v>
+      </c>
+      <c r="G91">
+        <v>-0.02525454017358939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1674704562939754</v>
+        <v>-0.1855325909555324</v>
       </c>
       <c r="C92">
-        <v>0.2803156521292069</v>
+        <v>-0.28688776968805</v>
       </c>
       <c r="D92">
-        <v>0.02347337393462439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02919156688228486</v>
+      </c>
+      <c r="E92">
+        <v>0.07016184279151694</v>
+      </c>
+      <c r="F92">
+        <v>-0.07488229457354566</v>
+      </c>
+      <c r="G92">
+        <v>-0.01639467517394858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2057919379857634</v>
+        <v>-0.2270840512707465</v>
       </c>
       <c r="C93">
-        <v>0.3350889581043708</v>
+        <v>-0.3164940248593725</v>
       </c>
       <c r="D93">
-        <v>0.0299648738916219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02201637693466568</v>
+      </c>
+      <c r="E93">
+        <v>0.04125111932740253</v>
+      </c>
+      <c r="F93">
+        <v>-0.01946890072412459</v>
+      </c>
+      <c r="G93">
+        <v>-0.03723096929655482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3297383080866567</v>
+        <v>-0.3343822052886827</v>
       </c>
       <c r="C94">
-        <v>-0.1586818929739081</v>
+        <v>0.1938963825593498</v>
       </c>
       <c r="D94">
-        <v>0.3389385891403857</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4318323679367858</v>
+      </c>
+      <c r="E94">
+        <v>0.007444615220582666</v>
+      </c>
+      <c r="F94">
+        <v>0.2471742334322795</v>
+      </c>
+      <c r="G94">
+        <v>0.4209740849784969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1126335730941062</v>
+        <v>-0.08373613514061157</v>
       </c>
       <c r="C95">
-        <v>-0.07241689613047014</v>
+        <v>0.06521186368650539</v>
       </c>
       <c r="D95">
-        <v>-0.1331596325886033</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1813835241431727</v>
+      </c>
+      <c r="E95">
+        <v>-0.09593306997830175</v>
+      </c>
+      <c r="F95">
+        <v>-0.567885207539859</v>
+      </c>
+      <c r="G95">
+        <v>0.7082064017785492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1957235070323914</v>
+        <v>-0.187345399767653</v>
       </c>
       <c r="C98">
-        <v>-0.02310323620717595</v>
+        <v>0.04756881409333203</v>
       </c>
       <c r="D98">
-        <v>-0.122994118300735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1988089000407871</v>
+      </c>
+      <c r="E98">
+        <v>-0.1338833251546042</v>
+      </c>
+      <c r="F98">
+        <v>0.06168921465440368</v>
+      </c>
+      <c r="G98">
+        <v>-0.08475767929851265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00581003819035826</v>
+        <v>-0.004417801496191955</v>
       </c>
       <c r="C101">
-        <v>-0.03460194148148155</v>
+        <v>0.03013697553049695</v>
       </c>
       <c r="D101">
-        <v>0.01719422234127612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01592693269800734</v>
+      </c>
+      <c r="E101">
+        <v>0.04713789697824815</v>
+      </c>
+      <c r="F101">
+        <v>-0.08246077696671907</v>
+      </c>
+      <c r="G101">
+        <v>-0.0631466475572946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1241369661234916</v>
+        <v>-0.1255249314024023</v>
       </c>
       <c r="C102">
-        <v>-0.07034815995859577</v>
+        <v>0.1015721083906531</v>
       </c>
       <c r="D102">
-        <v>0.04126320619914312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05295185247720767</v>
+      </c>
+      <c r="E102">
+        <v>-0.01197243843742537</v>
+      </c>
+      <c r="F102">
+        <v>-0.01727012781452155</v>
+      </c>
+      <c r="G102">
+        <v>-0.0001530967782837886</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
